--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jance\Downloads\School\School\Programming\SRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jik0003\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D62B51F-42C1-4589-A148-DA9B9EAB55C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55228AF-41CD-471E-873D-A89931679E1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>WBS</t>
   </si>
@@ -336,6 +336,9 @@
   <si>
     <t>Finalise Data Dictionary, IPO chart and Gantt Chart</t>
   </si>
+  <si>
+    <t>♦</t>
+  </si>
 </sst>
 </file>
 
@@ -347,7 +350,7 @@
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -616,6 +619,12 @@
       <i/>
       <sz val="8"/>
       <color theme="1" tint="0.34998626667073579"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF70757A"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1028,7 +1037,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1228,31 +1237,32 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1494,13 +1504,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>99060</xdr:colOff>
+          <xdr:colOff>101600</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>120650</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>106680</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -1835,23 +1845,23 @@
   <dimension ref="A1:AS32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AV3" sqref="AV3"/>
+      <pane ySplit="7" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.90625" style="5" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.90625" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.88671875" style="1" customWidth="1"/>
-    <col min="11" max="45" width="2.44140625" style="1" customWidth="1"/>
-    <col min="46" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="6.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.90625" style="1" customWidth="1"/>
+    <col min="11" max="45" width="2.453125" style="1" customWidth="1"/>
+    <col min="46" max="16384" width="9.08984375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1864,27 +1874,27 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="I1" s="73"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
     </row>
     <row r="2" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -1897,7 +1907,7 @@
       <c r="F2" s="74"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:45" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" ht="14" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="14"/>
       <c r="C3" s="4"/>
@@ -1929,11 +1939,11 @@
       <c r="B4" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="83">
+      <c r="C4" s="76">
         <v>44399</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
       <c r="F4" s="55"/>
       <c r="G4" s="58" t="s">
         <v>8</v>
@@ -1997,9 +2007,9 @@
     <row r="5" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
       <c r="B5" s="58"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
       <c r="F5" s="57"/>
       <c r="G5" s="57"/>
       <c r="H5" s="57"/>
@@ -2208,7 +2218,7 @@
         <v>44430</v>
       </c>
     </row>
-    <row r="7" spans="1:45" s="68" customFormat="1" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" s="68" customFormat="1" ht="32" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
         <v>0</v>
       </c>
@@ -2376,7 +2386,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:45" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" s="21" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -2434,7 +2444,7 @@
       <c r="AR8" s="50"/>
       <c r="AS8" s="50"/>
     </row>
-    <row r="9" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="str">
         <f t="shared" ref="A9:A13" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -2468,7 +2478,9 @@
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
+      <c r="R9" s="84" t="s">
+        <v>36</v>
+      </c>
       <c r="S9" s="51"/>
       <c r="T9" s="51"/>
       <c r="U9" s="51"/>
@@ -2497,7 +2509,7 @@
       <c r="AR9" s="51"/>
       <c r="AS9" s="51"/>
     </row>
-    <row r="10" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="str">
         <f t="shared" si="5"/>
         <v>1.2</v>
@@ -2533,7 +2545,9 @@
       <c r="Q10" s="51"/>
       <c r="R10" s="51"/>
       <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
+      <c r="T10" s="84" t="s">
+        <v>36</v>
+      </c>
       <c r="U10" s="51"/>
       <c r="V10" s="51"/>
       <c r="W10" s="51"/>
@@ -2560,7 +2574,7 @@
       <c r="AR10" s="51"/>
       <c r="AS10" s="51"/>
     </row>
-    <row r="11" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="str">
         <f t="shared" si="5"/>
         <v>1.3</v>
@@ -2596,7 +2610,9 @@
       <c r="Q11" s="51"/>
       <c r="R11" s="51"/>
       <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
+      <c r="T11" s="84" t="s">
+        <v>36</v>
+      </c>
       <c r="U11" s="51"/>
       <c r="V11" s="51"/>
       <c r="W11" s="51"/>
@@ -2623,7 +2639,7 @@
       <c r="AR11" s="51"/>
       <c r="AS11" s="51"/>
     </row>
-    <row r="12" spans="1:45" s="27" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" s="27" customFormat="1" ht="23" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="str">
         <f t="shared" si="5"/>
         <v>1.4</v>
@@ -2658,7 +2674,9 @@
       <c r="P12" s="51"/>
       <c r="Q12" s="51"/>
       <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
+      <c r="S12" s="84" t="s">
+        <v>36</v>
+      </c>
       <c r="T12" s="51"/>
       <c r="U12" s="51"/>
       <c r="V12" s="51"/>
@@ -2686,7 +2704,7 @@
       <c r="AR12" s="51"/>
       <c r="AS12" s="51"/>
     </row>
-    <row r="13" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="str">
         <f t="shared" si="5"/>
         <v>1.5</v>
@@ -2723,7 +2741,9 @@
       <c r="R13" s="51"/>
       <c r="S13" s="51"/>
       <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
+      <c r="U13" s="84" t="s">
+        <v>36</v>
+      </c>
       <c r="V13" s="51"/>
       <c r="W13" s="51"/>
       <c r="X13" s="51"/>
@@ -2749,7 +2769,7 @@
       <c r="AR13" s="51"/>
       <c r="AS13" s="51"/>
     </row>
-    <row r="14" spans="1:45" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" s="21" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
@@ -2806,7 +2826,7 @@
       <c r="AR14" s="53"/>
       <c r="AS14" s="53"/>
     </row>
-    <row r="15" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
@@ -2848,7 +2868,9 @@
       <c r="W15" s="51"/>
       <c r="X15" s="51"/>
       <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
+      <c r="Z15" s="84" t="s">
+        <v>36</v>
+      </c>
       <c r="AA15" s="51"/>
       <c r="AB15" s="51"/>
       <c r="AC15" s="51"/>
@@ -2869,7 +2891,7 @@
       <c r="AR15" s="51"/>
       <c r="AS15" s="51"/>
     </row>
-    <row r="16" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
@@ -2889,7 +2911,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="29">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I16" s="30">
         <f t="shared" si="4"/>
@@ -2932,7 +2954,7 @@
       <c r="AR16" s="51"/>
       <c r="AS16" s="51"/>
     </row>
-    <row r="17" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
@@ -2995,7 +3017,7 @@
       <c r="AR17" s="51"/>
       <c r="AS17" s="51"/>
     </row>
-    <row r="18" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
@@ -3058,7 +3080,7 @@
       <c r="AR18" s="51"/>
       <c r="AS18" s="51"/>
     </row>
-    <row r="19" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.5</v>
@@ -3121,7 +3143,7 @@
       <c r="AR19" s="51"/>
       <c r="AS19" s="51"/>
     </row>
-    <row r="20" spans="1:45" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" s="21" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
@@ -3178,7 +3200,7 @@
       <c r="AR20" s="53"/>
       <c r="AS20" s="53"/>
     </row>
-    <row r="21" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
@@ -3241,7 +3263,7 @@
       <c r="AR21" s="51"/>
       <c r="AS21" s="51"/>
     </row>
-    <row r="22" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
@@ -3304,7 +3326,7 @@
       <c r="AR22" s="51"/>
       <c r="AS22" s="51"/>
     </row>
-    <row r="23" spans="1:45" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" s="21" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
@@ -3361,7 +3383,7 @@
       <c r="AR23" s="53"/>
       <c r="AS23" s="53"/>
     </row>
-    <row r="24" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -3424,7 +3446,7 @@
       <c r="AR24" s="51"/>
       <c r="AS24" s="51"/>
     </row>
-    <row r="25" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.2</v>
@@ -3487,7 +3509,7 @@
       <c r="AR25" s="51"/>
       <c r="AS25" s="51"/>
     </row>
-    <row r="26" spans="1:45" s="27" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" s="27" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.3</v>
@@ -3550,7 +3572,7 @@
       <c r="AR26" s="51"/>
       <c r="AS26" s="51"/>
     </row>
-    <row r="27" spans="1:45" s="27" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" s="27" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.4</v>
@@ -3613,7 +3635,7 @@
       <c r="AR27" s="51"/>
       <c r="AS27" s="51"/>
     </row>
-    <row r="28" spans="1:45" s="31" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" s="31" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>5</v>
@@ -3671,7 +3693,7 @@
       <c r="AR28" s="53"/>
       <c r="AS28" s="53"/>
     </row>
-    <row r="29" spans="1:45" s="31" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" s="31" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.1</v>
@@ -3735,7 +3757,7 @@
       <c r="AR29" s="51"/>
       <c r="AS29" s="51"/>
     </row>
-    <row r="30" spans="1:45" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" s="32" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.2</v>
@@ -3799,7 +3821,7 @@
       <c r="AR30" s="51"/>
       <c r="AS30" s="51"/>
     </row>
-    <row r="31" spans="1:45" s="31" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45" s="31" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.3</v>
@@ -3913,12 +3935,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="13">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="K1:AE1"/>
     <mergeCell ref="R4:X4"/>
     <mergeCell ref="K4:Q4"/>
@@ -3926,6 +3942,12 @@
     <mergeCell ref="K5:Q5"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AM4:AS4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H31">
@@ -3947,7 +3969,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:AS31">
+  <conditionalFormatting sqref="K8:AS8 K14:AS14 K9:Q9 S9:AS9 K10:S11 U10:AS11 K12:R12 T12:AS12 K13:T13 V13:AS13 K16:AS31 K15:Y15 AA15:AS15">
     <cfRule type="expression" dxfId="2" priority="48">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
@@ -3955,7 +3977,7 @@
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:AS31">
+  <conditionalFormatting sqref="K6:AS8 K14:AS14 K9:Q9 S9:AS9 K10:S11 U10:AS11 K12:R12 T12:AS12 K13:T13 V13:AS13 K16:AS31 K15:Y15 AA15:AS15">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -3967,7 +3989,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 E14 E20 E23 G14:H14 G20:H20 G23:H23 H18 H16 H17 H21 H22 G26:H27 H24 H25" unlockedFormula="1"/>
+    <ignoredError sqref="H9 E14 E20 E23 G14:H14 G20:H20 G23:H23 H18 H17 H21 H22 G26:H27 H24 H25" unlockedFormula="1"/>
     <ignoredError sqref="A23 A20 A14 A28:AS28 AT28:XFD28" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
@@ -3982,13 +4004,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:colOff>101600</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>120650</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>27</xdr:col>
-                    <xdr:colOff>106680</xdr:colOff>
+                    <xdr:colOff>107950</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </to>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jik0003\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jance\Downloads\School\School\Programming\SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55228AF-41CD-471E-873D-A89931679E1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BC3AA8-7F17-48A3-9BFC-DC076F644D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>WBS</t>
   </si>
@@ -1237,32 +1237,32 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1504,13 +1504,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>101600</xdr:colOff>
+          <xdr:colOff>99060</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>120650</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>106680</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -1845,23 +1845,23 @@
   <dimension ref="A1:AS32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ15" sqref="AJ15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.90625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="5" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.90625" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.90625" style="1" customWidth="1"/>
-    <col min="11" max="45" width="2.453125" style="1" customWidth="1"/>
-    <col min="46" max="16384" width="9.08984375" style="3"/>
+    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.88671875" style="1" customWidth="1"/>
+    <col min="11" max="45" width="2.44140625" style="1" customWidth="1"/>
+    <col min="46" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1874,27 +1874,27 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="I1" s="73"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
     </row>
     <row r="2" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -1907,7 +1907,7 @@
       <c r="F2" s="74"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:45" ht="14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="14"/>
       <c r="C3" s="4"/>
@@ -1939,11 +1939,11 @@
       <c r="B4" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="76">
+      <c r="C4" s="84">
         <v>44399</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="55"/>
       <c r="G4" s="58" t="s">
         <v>8</v>
@@ -1953,118 +1953,118 @@
       </c>
       <c r="I4" s="56"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="77" t="str">
+      <c r="K4" s="78" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="77" t="str">
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="78" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="77" t="str">
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="78" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="77" t="str">
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="79"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="78" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="78"/>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="77" t="str">
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="79"/>
+      <c r="AI4" s="79"/>
+      <c r="AJ4" s="79"/>
+      <c r="AK4" s="79"/>
+      <c r="AL4" s="80"/>
+      <c r="AM4" s="78" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="78"/>
-      <c r="AO4" s="78"/>
-      <c r="AP4" s="78"/>
-      <c r="AQ4" s="78"/>
-      <c r="AR4" s="78"/>
-      <c r="AS4" s="79"/>
+      <c r="AN4" s="79"/>
+      <c r="AO4" s="79"/>
+      <c r="AP4" s="79"/>
+      <c r="AQ4" s="79"/>
+      <c r="AR4" s="79"/>
+      <c r="AS4" s="80"/>
     </row>
     <row r="5" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
       <c r="B5" s="58"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
       <c r="F5" s="57"/>
       <c r="G5" s="57"/>
       <c r="H5" s="57"/>
       <c r="I5" s="57"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="80">
+      <c r="K5" s="81">
         <f>K6</f>
         <v>44396</v>
       </c>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="80">
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="81">
         <f>R6</f>
         <v>44403</v>
       </c>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="81"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="80">
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="81">
         <f>Y6</f>
         <v>44410</v>
       </c>
-      <c r="Z5" s="81"/>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="81"/>
-      <c r="AC5" s="81"/>
-      <c r="AD5" s="81"/>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="80">
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="83"/>
+      <c r="AF5" s="81">
         <f>AF6</f>
         <v>44417</v>
       </c>
-      <c r="AG5" s="81"/>
-      <c r="AH5" s="81"/>
-      <c r="AI5" s="81"/>
-      <c r="AJ5" s="81"/>
-      <c r="AK5" s="81"/>
-      <c r="AL5" s="82"/>
-      <c r="AM5" s="80">
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="82"/>
+      <c r="AJ5" s="82"/>
+      <c r="AK5" s="82"/>
+      <c r="AL5" s="83"/>
+      <c r="AM5" s="81">
         <f>AM6</f>
         <v>44424</v>
       </c>
-      <c r="AN5" s="81"/>
-      <c r="AO5" s="81"/>
-      <c r="AP5" s="81"/>
-      <c r="AQ5" s="81"/>
-      <c r="AR5" s="81"/>
-      <c r="AS5" s="82"/>
+      <c r="AN5" s="82"/>
+      <c r="AO5" s="82"/>
+      <c r="AP5" s="82"/>
+      <c r="AQ5" s="82"/>
+      <c r="AR5" s="82"/>
+      <c r="AS5" s="83"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
@@ -2218,7 +2218,7 @@
         <v>44430</v>
       </c>
     </row>
-    <row r="7" spans="1:45" s="68" customFormat="1" ht="32" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" s="68" customFormat="1" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
         <v>0</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:45" s="21" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -2444,7 +2444,7 @@
       <c r="AR8" s="50"/>
       <c r="AS8" s="50"/>
     </row>
-    <row r="9" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="str">
         <f t="shared" ref="A9:A13" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -2478,7 +2478,7 @@
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="51"/>
-      <c r="R9" s="84" t="s">
+      <c r="R9" s="76" t="s">
         <v>36</v>
       </c>
       <c r="S9" s="51"/>
@@ -2509,7 +2509,7 @@
       <c r="AR9" s="51"/>
       <c r="AS9" s="51"/>
     </row>
-    <row r="10" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="str">
         <f t="shared" si="5"/>
         <v>1.2</v>
@@ -2545,7 +2545,7 @@
       <c r="Q10" s="51"/>
       <c r="R10" s="51"/>
       <c r="S10" s="51"/>
-      <c r="T10" s="84" t="s">
+      <c r="T10" s="76" t="s">
         <v>36</v>
       </c>
       <c r="U10" s="51"/>
@@ -2574,7 +2574,7 @@
       <c r="AR10" s="51"/>
       <c r="AS10" s="51"/>
     </row>
-    <row r="11" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="str">
         <f t="shared" si="5"/>
         <v>1.3</v>
@@ -2610,7 +2610,7 @@
       <c r="Q11" s="51"/>
       <c r="R11" s="51"/>
       <c r="S11" s="51"/>
-      <c r="T11" s="84" t="s">
+      <c r="T11" s="76" t="s">
         <v>36</v>
       </c>
       <c r="U11" s="51"/>
@@ -2639,7 +2639,7 @@
       <c r="AR11" s="51"/>
       <c r="AS11" s="51"/>
     </row>
-    <row r="12" spans="1:45" s="27" customFormat="1" ht="23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" s="27" customFormat="1" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="str">
         <f t="shared" si="5"/>
         <v>1.4</v>
@@ -2674,7 +2674,7 @@
       <c r="P12" s="51"/>
       <c r="Q12" s="51"/>
       <c r="R12" s="51"/>
-      <c r="S12" s="84" t="s">
+      <c r="S12" s="76" t="s">
         <v>36</v>
       </c>
       <c r="T12" s="51"/>
@@ -2704,7 +2704,7 @@
       <c r="AR12" s="51"/>
       <c r="AS12" s="51"/>
     </row>
-    <row r="13" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="str">
         <f t="shared" si="5"/>
         <v>1.5</v>
@@ -2741,7 +2741,7 @@
       <c r="R13" s="51"/>
       <c r="S13" s="51"/>
       <c r="T13" s="51"/>
-      <c r="U13" s="84" t="s">
+      <c r="U13" s="76" t="s">
         <v>36</v>
       </c>
       <c r="V13" s="51"/>
@@ -2769,7 +2769,7 @@
       <c r="AR13" s="51"/>
       <c r="AS13" s="51"/>
     </row>
-    <row r="14" spans="1:45" s="21" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
@@ -2826,7 +2826,7 @@
       <c r="AR14" s="53"/>
       <c r="AS14" s="53"/>
     </row>
-    <row r="15" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
@@ -2868,7 +2868,7 @@
       <c r="W15" s="51"/>
       <c r="X15" s="51"/>
       <c r="Y15" s="51"/>
-      <c r="Z15" s="84" t="s">
+      <c r="Z15" s="76" t="s">
         <v>36</v>
       </c>
       <c r="AA15" s="51"/>
@@ -2891,7 +2891,7 @@
       <c r="AR15" s="51"/>
       <c r="AS15" s="51"/>
     </row>
-    <row r="16" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
@@ -2911,7 +2911,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="29">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I16" s="30">
         <f t="shared" si="4"/>
@@ -2954,7 +2954,7 @@
       <c r="AR16" s="51"/>
       <c r="AS16" s="51"/>
     </row>
-    <row r="17" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="30">
         <f t="shared" si="4"/>
@@ -3017,7 +3017,7 @@
       <c r="AR17" s="51"/>
       <c r="AS17" s="51"/>
     </row>
-    <row r="18" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
@@ -3031,17 +3031,17 @@
       </c>
       <c r="F18" s="48">
         <f t="shared" si="6"/>
-        <v>44418</v>
+        <v>44423</v>
       </c>
       <c r="G18" s="28">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H18" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="30">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J18" s="45"/>
       <c r="K18" s="51"/>
@@ -3072,7 +3072,9 @@
       <c r="AJ18" s="51"/>
       <c r="AK18" s="51"/>
       <c r="AL18" s="51"/>
-      <c r="AM18" s="51"/>
+      <c r="AM18" s="76" t="s">
+        <v>36</v>
+      </c>
       <c r="AN18" s="51"/>
       <c r="AO18" s="51"/>
       <c r="AP18" s="51"/>
@@ -3080,7 +3082,7 @@
       <c r="AR18" s="51"/>
       <c r="AS18" s="51"/>
     </row>
-    <row r="19" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.5</v>
@@ -3090,11 +3092,11 @@
       </c>
       <c r="D19" s="71"/>
       <c r="E19" s="47">
-        <v>44415</v>
+        <v>44426</v>
       </c>
       <c r="F19" s="48">
         <f t="shared" si="6"/>
-        <v>44424</v>
+        <v>44435</v>
       </c>
       <c r="G19" s="28">
         <v>10</v>
@@ -3104,7 +3106,7 @@
       </c>
       <c r="I19" s="30">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J19" s="45"/>
       <c r="K19" s="51"/>
@@ -3143,7 +3145,7 @@
       <c r="AR19" s="51"/>
       <c r="AS19" s="51"/>
     </row>
-    <row r="20" spans="1:45" s="21" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
@@ -3200,7 +3202,7 @@
       <c r="AR20" s="53"/>
       <c r="AS20" s="53"/>
     </row>
-    <row r="21" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
@@ -3263,7 +3265,7 @@
       <c r="AR21" s="51"/>
       <c r="AS21" s="51"/>
     </row>
-    <row r="22" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
@@ -3326,7 +3328,7 @@
       <c r="AR22" s="51"/>
       <c r="AS22" s="51"/>
     </row>
-    <row r="23" spans="1:45" s="21" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
@@ -3383,7 +3385,7 @@
       <c r="AR23" s="53"/>
       <c r="AS23" s="53"/>
     </row>
-    <row r="24" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -3446,7 +3448,7 @@
       <c r="AR24" s="51"/>
       <c r="AS24" s="51"/>
     </row>
-    <row r="25" spans="1:45" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.2</v>
@@ -3509,7 +3511,7 @@
       <c r="AR25" s="51"/>
       <c r="AS25" s="51"/>
     </row>
-    <row r="26" spans="1:45" s="27" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" s="27" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.3</v>
@@ -3572,7 +3574,7 @@
       <c r="AR26" s="51"/>
       <c r="AS26" s="51"/>
     </row>
-    <row r="27" spans="1:45" s="27" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" s="27" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.4</v>
@@ -3635,7 +3637,7 @@
       <c r="AR27" s="51"/>
       <c r="AS27" s="51"/>
     </row>
-    <row r="28" spans="1:45" s="31" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" s="31" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>5</v>
@@ -3693,7 +3695,7 @@
       <c r="AR28" s="53"/>
       <c r="AS28" s="53"/>
     </row>
-    <row r="29" spans="1:45" s="31" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" s="31" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.1</v>
@@ -3757,7 +3759,7 @@
       <c r="AR29" s="51"/>
       <c r="AS29" s="51"/>
     </row>
-    <row r="30" spans="1:45" s="32" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.2</v>
@@ -3821,7 +3823,7 @@
       <c r="AR30" s="51"/>
       <c r="AS30" s="51"/>
     </row>
-    <row r="31" spans="1:45" s="31" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45" s="31" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.3</v>
@@ -3935,6 +3937,12 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="13">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="K1:AE1"/>
     <mergeCell ref="R4:X4"/>
     <mergeCell ref="K4:Q4"/>
@@ -3942,12 +3950,6 @@
     <mergeCell ref="K5:Q5"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AM4:AS4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H31">
@@ -3969,7 +3971,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:AS8 K14:AS14 K9:Q9 S9:AS9 K10:S11 U10:AS11 K12:R12 T12:AS12 K13:T13 V13:AS13 K16:AS31 K15:Y15 AA15:AS15">
+  <conditionalFormatting sqref="K8:AS8 K14:AS14 K9:Q9 S9:AS9 K10:S11 U10:AS11 K12:R12 T12:AS12 K13:T13 V13:AS13 K16:AS17 K15:Y15 AA15:AS15 K19:AS31 K18:AL18 AN18:AS18">
     <cfRule type="expression" dxfId="2" priority="48">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
@@ -3977,7 +3979,7 @@
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:AS8 K14:AS14 K9:Q9 S9:AS9 K10:S11 U10:AS11 K12:R12 T12:AS12 K13:T13 V13:AS13 K16:AS31 K15:Y15 AA15:AS15">
+  <conditionalFormatting sqref="K6:AS8 K14:AS14 K9:Q9 S9:AS9 K10:S11 U10:AS11 K12:R12 T12:AS12 K13:T13 V13:AS13 K16:AS17 K15:Y15 AA15:AS15 K19:AS31 K18:AL18 AN18:AS18">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -3989,7 +3991,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 E14 E20 E23 G14:H14 G20:H20 G23:H23 H18 H17 H21 H22 G26:H27 H24 H25" unlockedFormula="1"/>
+    <ignoredError sqref="H9 E14 E20 E23 G14:H14 G20:H20 G23:H23 H21 H22 G26:H27 H24 H25" unlockedFormula="1"/>
     <ignoredError sqref="A23 A20 A14 A28:AS28 AT28:XFD28" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
@@ -4004,13 +4006,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>101600</xdr:colOff>
+                    <xdr:colOff>99060</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>120650</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>27</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>106680</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </to>
